--- a/Volume 2 (1947 - 1960)/IBL2.xlsx
+++ b/Volume 2 (1947 - 1960)/IBL2.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1700" windowWidth="25740" windowHeight="14300" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="10260" yWindow="0" windowWidth="24560" windowHeight="20240" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MRofL Data Entry" sheetId="6" r:id="rId1"/>
     <sheet name="Archives &amp; Books" sheetId="2" r:id="rId2"/>
     <sheet name="Collection" sheetId="1" r:id="rId3"/>
-    <sheet name="Correspondence" sheetId="3" r:id="rId4"/>
+    <sheet name="Letter Events" sheetId="3" r:id="rId4"/>
     <sheet name="Biographical" sheetId="7" r:id="rId5"/>
+    <sheet name="GroupsInstitutions" sheetId="10" r:id="rId6"/>
+    <sheet name="Travel Events" sheetId="8" r:id="rId7"/>
+    <sheet name="Connection_Events" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="1564">
   <si>
     <t>DestinationLatLon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4752,6 +4755,51 @@
   </si>
   <si>
     <t>1B1947-79office.xls</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>EventDescription</t>
+  </si>
+  <si>
+    <t>Entity1</t>
+  </si>
+  <si>
+    <t>Entity2</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>EventNotes</t>
+  </si>
+  <si>
+    <t>PlaceRaw</t>
+  </si>
+  <si>
+    <t>PlaceID</t>
+  </si>
+  <si>
+    <t>GeonamesID</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>LocationRaw</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -6677,7 +6725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A15" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -7098,6 +7146,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7238,7 +7288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
@@ -7249,10 +7299,11 @@
     <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="3"/>
     <col min="14" max="14" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="21" max="24" width="0" hidden="1" customWidth="1"/>
@@ -28310,7 +28361,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="J431" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -28324,15 +28374,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -28343,33 +28393,36 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -28383,4 +28436,117 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>